--- a/CPIAUCSL_Economics_optimized.xlsx
+++ b/CPIAUCSL_Economics_optimized.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y200"/>
+  <dimension ref="A1:Y204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15734,7 +15734,9 @@
       <c r="A199" s="2" t="n">
         <v>45838</v>
       </c>
-      <c r="B199" t="inlineStr"/>
+      <c r="B199" t="n">
+        <v>321.5</v>
+      </c>
       <c r="C199" t="n">
         <v>6.6</v>
       </c>
@@ -15809,12 +15811,18 @@
       <c r="A200" s="2" t="n">
         <v>45869</v>
       </c>
-      <c r="B200" t="inlineStr"/>
-      <c r="C200" t="inlineStr"/>
+      <c r="B200" t="n">
+        <v>322.132</v>
+      </c>
+      <c r="C200" t="n">
+        <v>5</v>
+      </c>
       <c r="D200" t="n">
-        <v>2.38188811</v>
-      </c>
-      <c r="E200" t="inlineStr"/>
+        <v>2.38054202</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.02637591034548059</v>
+      </c>
       <c r="F200" t="n">
         <v>6.6</v>
       </c>
@@ -15824,7 +15832,9 @@
       <c r="H200" t="n">
         <v>0.02348148031435837</v>
       </c>
-      <c r="I200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>0.7555555555555555</v>
+      </c>
       <c r="J200" t="n">
         <v>1.170250896057348</v>
       </c>
@@ -15864,12 +15874,314 @@
       <c r="V200" t="n">
         <v>0.02354318528538171</v>
       </c>
-      <c r="W200" t="inlineStr"/>
+      <c r="W200" t="n">
+        <v>0.02623864148733057</v>
+      </c>
       <c r="X200" t="n">
-        <v>0.02456118709412922</v>
+        <v>0.02455862441701219</v>
       </c>
       <c r="Y200" t="n">
-        <v>0.0238992947948752</v>
+        <v>0.02599613875449484</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45900</v>
+      </c>
+      <c r="B201" t="n">
+        <v>323.364</v>
+      </c>
+      <c r="C201" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D201" t="n">
+        <v>2.78904728</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.0269515351998173</v>
+      </c>
+      <c r="F201" t="n">
+        <v>5</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.7555555555555555</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.02637591034548059</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.8146953405017922</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.9185185185185186</v>
+      </c>
+      <c r="K201" t="n">
+        <v>1.170250896057348</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1.117037037037037</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0.8412186379928316</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0.6595238095238095</v>
+      </c>
+      <c r="O201" t="n">
+        <v>0.4892473118279569</v>
+      </c>
+      <c r="P201" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="R201" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="S201" t="n">
+        <v>5</v>
+      </c>
+      <c r="T201" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="U201" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V201" t="n">
+        <v>0.02638692659292648</v>
+      </c>
+      <c r="W201" t="n">
+        <v>0.02819815360789871</v>
+      </c>
+      <c r="X201" t="n">
+        <v>0.0280586362304498</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>0.02720054445549156</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B202" t="n">
+        <v>324.368</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D202" t="n">
+        <v>2.68936045</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.02896852733478372</v>
+      </c>
+      <c r="F202" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.8146953405017922</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.0269515351998173</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.9248148148148148</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.7555555555555555</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0.9185185185185186</v>
+      </c>
+      <c r="L202" t="n">
+        <v>1.170250896057348</v>
+      </c>
+      <c r="M202" t="n">
+        <v>1.117037037037037</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.8412186379928316</v>
+      </c>
+      <c r="O202" t="n">
+        <v>0.6595238095238095</v>
+      </c>
+      <c r="P202" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>5</v>
+      </c>
+      <c r="R202" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="S202" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T202" t="n">
+        <v>5</v>
+      </c>
+      <c r="U202" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="V202" t="n">
+        <v>0.02695254058730978</v>
+      </c>
+      <c r="W202" t="n">
+        <v>0.02914323536072327</v>
+      </c>
+      <c r="X202" t="n">
+        <v>0.0283830056392974</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>0.02893361365055446</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D203" t="n">
+        <v>2.79604823</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.02977916268051928</v>
+      </c>
+      <c r="F203" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.9248148148148148</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.02896852733478372</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.8086021505376344</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.8146953405017922</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0.7555555555555555</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0.9185185185185186</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1.170250896057348</v>
+      </c>
+      <c r="N203" t="n">
+        <v>1.117037037037037</v>
+      </c>
+      <c r="O203" t="n">
+        <v>0.8412186379928316</v>
+      </c>
+      <c r="P203" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R203" t="n">
+        <v>5</v>
+      </c>
+      <c r="S203" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T203" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U203" t="n">
+        <v>5</v>
+      </c>
+      <c r="V203" t="n">
+        <v>0.02893488133016218</v>
+      </c>
+      <c r="W203" t="n">
+        <v>0.03087154223420583</v>
+      </c>
+      <c r="X203" t="n">
+        <v>0.0304749717201673</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>0.03002951986028322</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D204" t="n">
+        <v>2.74488063</v>
+      </c>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.8086021505376344</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.02977916268051928</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0.9248148148148148</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0.8146953405017922</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0.7555555555555555</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0.9185185185185186</v>
+      </c>
+      <c r="N204" t="n">
+        <v>1.170250896057348</v>
+      </c>
+      <c r="O204" t="n">
+        <v>1.117037037037037</v>
+      </c>
+      <c r="P204" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="R204" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S204" t="n">
+        <v>5</v>
+      </c>
+      <c r="T204" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U204" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V204" t="n">
+        <v>0.02973199381914737</v>
+      </c>
+      <c r="W204" t="n">
+        <v>0.03145225477868011</v>
+      </c>
+      <c r="X204" t="n">
+        <v>0.0311204687151446</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>0.03032342634296706</v>
       </c>
     </row>
   </sheetData>
